--- a/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>MCG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,166 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>124100</v>
+      </c>
+      <c r="F8" s="3">
         <v>72400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>384400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>114200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>57000</v>
+      </c>
+      <c r="J8" s="3">
         <v>141600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F9" s="3">
         <v>74000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>329300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>90500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>48800</v>
+      </c>
+      <c r="J9" s="3">
         <v>121600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>55100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J10" s="3">
         <v>20000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,37 +937,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F15" s="3">
         <v>17800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>69800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J15" s="3">
         <v>14900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>170900</v>
+      </c>
+      <c r="F17" s="3">
         <v>136000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>539100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>129900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>115100</v>
+      </c>
+      <c r="J17" s="3">
         <v>168700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-63600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-154700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-27100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,153 +1073,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-46400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-88500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-12400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F22" s="3">
         <v>29600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>77800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J22" s="3">
         <v>17800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-93900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-236100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-45100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-93000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-235300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-45000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-90500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-228500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-43600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-90500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-228500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-43600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-90500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-228500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-43600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F41" s="3">
         <v>71700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,20 +1769,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F43" s="3">
         <v>10600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,20 +1804,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F44" s="3">
         <v>24100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,20 +1839,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>57100</v>
+      </c>
+      <c r="F45" s="3">
         <v>55300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1874,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>377800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>157200</v>
+      </c>
+      <c r="F46" s="3">
         <v>161700</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,20 +1909,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F47" s="3">
         <v>21900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,20 +1944,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1633800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1559100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1625300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,20 +1979,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>353500</v>
+      </c>
+      <c r="F49" s="3">
         <v>307500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +2084,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2154,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2383400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2092800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2122200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2223,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>82200</v>
+      </c>
+      <c r="F57" s="3">
         <v>69800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,20 +2254,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>97300</v>
+      </c>
+      <c r="F58" s="3">
         <v>103600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2289,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>247700</v>
+      </c>
+      <c r="F59" s="3">
         <v>207200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2324,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>339500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F60" s="3">
         <v>380600</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,20 +2359,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>717500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>740600</v>
+      </c>
+      <c r="F61" s="3">
         <v>722100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2108,20 +2394,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1101400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1018800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1084000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2165300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2193100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2243300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,20 +2654,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>185400</v>
+      </c>
+      <c r="F70" s="3">
         <v>176300</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-979900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-902700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-847600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-285600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-297400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-90500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-228500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-43600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F83" s="3">
         <v>17800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>69800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-104400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-38200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-128900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-26200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-139900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-29900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,91 +3579,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>140500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>179700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>131800</v>
+      </c>
+      <c r="J100" s="3">
         <v>36700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>86100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>MCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E8" s="3">
         <v>179600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>384400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E9" s="3">
         <v>143700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>329300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E10" s="3">
         <v>35900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,43 +963,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E15" s="3">
         <v>21500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>15800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E17" s="3">
         <v>233000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>170900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>539100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>168700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-53400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-154700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,183 +1108,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-88500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-44100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E22" s="3">
         <v>20800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>77800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-93900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-236100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-78100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-800</v>
       </c>
       <c r="H24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-93000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-235300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-77900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-77000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-90500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-228500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-77000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-90500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-228500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-76200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-77000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-90500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-228500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-76200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E41" s="3">
         <v>259300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,23 +1865,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,23 +1903,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E44" s="3">
         <v>26600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>26400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,23 +1941,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E45" s="3">
         <v>63400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E46" s="3">
         <v>377800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>157200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,23 +2017,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E47" s="3">
         <v>20500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,23 +2055,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1633800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1559100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1625300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,23 +2093,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E49" s="3">
         <v>345900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>353500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>307500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,23 +2207,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2381500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2383400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2092800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2122200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E57" s="3">
         <v>59800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,23 +2391,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E58" s="3">
         <v>25500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>97300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>103600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,23 +2429,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E59" s="3">
         <v>254300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>247700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>207200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E60" s="3">
         <v>339500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>427200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>380600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,23 +2505,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>722800</v>
+      </c>
+      <c r="E61" s="3">
         <v>717500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>740600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>722100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2400,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1101400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1018800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1084000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2205300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2165300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2193100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2243300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,14 +2837,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>185400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>176300</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1021800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-979900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-902700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-847600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E76" s="3">
         <v>218100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-285600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-297400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-77000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-90500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-228500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-76200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,43 +3228,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-104400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-128900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-139900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,109 +3828,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>263500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>140500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>179700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>131800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E102" s="3">
         <v>211900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>86100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>MCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,203 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>192000</v>
+      </c>
+      <c r="F8" s="3">
         <v>184500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>179600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>124100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>72400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>384400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>114200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>57000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>141600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>157600</v>
+      </c>
+      <c r="F9" s="3">
         <v>147200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>143700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>111100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>74000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>329300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>90500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>48800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>121600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>55100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>23700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +876,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +916,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +960,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,46 +1004,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F15" s="3">
         <v>22400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>21500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>21900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>17800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>69800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>15800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>16200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>14900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1067,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>239400</v>
+      </c>
+      <c r="F17" s="3">
         <v>208700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>233000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>170900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>136000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>539100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>129900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>115100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>168700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-53400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-46800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-63600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-154700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-58100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-27100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,198 +1173,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-18200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-46400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-88500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-44100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F22" s="3">
         <v>16900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>20800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>29600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>77800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>20700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>17900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-73400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-57100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-93900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-236100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-36700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-78100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-45100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1433,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-42300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-76200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-57100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-93000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-235300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-77900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-45000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-41900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-77000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-56000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-90500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-228500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-36200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-76200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-43600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1565,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1609,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1653,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1697,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-41900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-77000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-56000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-90500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-228500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-36200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-76200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-43600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1829,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-41900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-77000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-56000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-90500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-228500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-36200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-76200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-43600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1944,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1962,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>277200</v>
+      </c>
+      <c r="F41" s="3">
         <v>212800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>259300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>49000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>71700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +2002,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +2046,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F43" s="3">
         <v>24900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>24700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,29 +2090,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F44" s="3">
         <v>29700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>26600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>26400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>24100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,29 +2134,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>82100</v>
+      </c>
+      <c r="F45" s="3">
         <v>59300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>63400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>57100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>55300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2178,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>427100</v>
+      </c>
+      <c r="F46" s="3">
         <v>326700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>377800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>157200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>161700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,29 +2222,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F47" s="3">
         <v>23600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>19900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>21900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2266,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1720700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1682000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1633800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1559100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1625300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2310,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>324800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>341300</v>
+      </c>
+      <c r="F49" s="3">
         <v>346400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>345900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>353500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>307500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2354,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2398,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2442,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2486,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2530,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2434900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2515600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2381500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2383400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2092800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2122200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2574,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2596,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2614,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F57" s="3">
         <v>71500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>59800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>82200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>69800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,29 +2654,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F58" s="3">
         <v>28600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>25500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>97300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>103600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,29 +2698,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>257300</v>
+      </c>
+      <c r="F59" s="3">
         <v>229700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>254300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>247700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>207200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2742,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>360700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>333900</v>
+      </c>
+      <c r="F60" s="3">
         <v>329800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>339500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>427200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>380600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2786,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>839300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>843600</v>
+      </c>
+      <c r="F61" s="3">
         <v>722800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>717500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>740600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>722100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2830,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1156900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1146700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1101400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1018800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1084000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2874,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2918,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2962,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +3006,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2362300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2385900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2205300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2165300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2193100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2243300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3050,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3072,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3112,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3156,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,17 +3174,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>185400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>176300</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3200,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3244,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1164300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1082300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1021800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-979900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-902700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-847600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3288,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3332,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3376,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3420,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>129700</v>
+      </c>
+      <c r="F76" s="3">
         <v>176100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>218100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-285600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-297400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3464,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3508,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-41900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-77000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-56000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-90500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-228500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-36200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-76200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-43600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3623,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F83" s="3">
         <v>22400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>69800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>15800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3707,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3751,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3795,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3839,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3883,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-104400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3949,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-26700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-27200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-15200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-128900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-30200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-26200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4033,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +4077,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-39600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-32600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-139900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-31700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-37300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4143,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4183,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4227,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4271,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,118 +4315,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F100" s="3">
         <v>3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>263500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>140500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>179700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>131800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>36700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-48200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>211900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-27100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>86100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>MCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,227 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>270400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F8" s="3">
         <v>243800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>192000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>184500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>179600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>124100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>72400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>384400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>114200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>57000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>141600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>213700</v>
+      </c>
+      <c r="F9" s="3">
         <v>194400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>157600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>147200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>143700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>111100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>74000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>329300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>90500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>48800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>121600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52300</v>
+      </c>
+      <c r="F10" s="3">
         <v>49400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>34400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>35900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>13000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +902,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +948,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +998,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,52 +1048,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F15" s="3">
         <v>22700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>22800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>22400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>21500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>21900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>17800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>69800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>15800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>16200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1119,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>336600</v>
+      </c>
+      <c r="F17" s="3">
         <v>309300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>239400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>208700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>233000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>170900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>136000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>539100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>129900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>115100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>168700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-65500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-47400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-53400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-46800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-63600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-154700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-58100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-27100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,228 +1239,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-22500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-31000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-46400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-88500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-44100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-12400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F22" s="3">
         <v>18800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>15700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>20800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>29600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>77800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>20700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>17900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>17800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-83000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-61100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-43500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-73400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-57100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-93900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-236100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-36700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-78100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-45100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1535,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-83600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-60600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-42300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-76200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-57100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-235300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-36600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-77900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-45000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-82000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-60500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-41900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-77000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-90500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-228500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-76200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-43600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1685,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1735,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1785,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1835,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-82000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-60500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-41900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-77000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-56000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-90500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-228500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-36200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-76200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-43600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1985,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-82000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-60500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-41900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-77000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-56000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-90500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-228500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-36200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-76200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-43600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2114,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,35 +2134,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>227900</v>
+      </c>
+      <c r="F41" s="3">
         <v>259100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>277200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>212800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>259300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>49000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>71700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2180,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,35 +2230,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F43" s="3">
         <v>40600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>32900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>24900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>24700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,35 +2280,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F44" s="3">
         <v>42900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>34800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>29700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>26600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>26400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>24100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,35 +2330,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F45" s="3">
         <v>80300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>82100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>59300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>63400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>57100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>55300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,35 +2380,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>381200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>385900</v>
+      </c>
+      <c r="F46" s="3">
         <v>422900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>427100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>326700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>377800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>157200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>161700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,35 +2430,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F47" s="3">
         <v>22100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>23200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>20500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>21900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,35 +2480,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1732600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1643300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1660000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1720700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1682000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1633800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1559100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1625300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,35 +2530,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>325600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>309100</v>
+      </c>
+      <c r="F49" s="3">
         <v>324800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>341300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>346400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>345900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>353500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>307500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +2580,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2630,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,35 +2680,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2730,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,35 +2780,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2467900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2365100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2434900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2515600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2381500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2383400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2092800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2122200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2830,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2854,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,35 +2874,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F57" s="3">
         <v>68700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>71500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>59800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>82200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>69800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,35 +2920,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F58" s="3">
         <v>11600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>11200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>28600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>25500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>97300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>103600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,35 +2970,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>289400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>263100</v>
+      </c>
+      <c r="F59" s="3">
         <v>280400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>257300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>229700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>254300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>247700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>207200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,35 +3020,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>395800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>355600</v>
+      </c>
+      <c r="F60" s="3">
         <v>360700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>333900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>329800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>339500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>427200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>380600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,35 +3070,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>822000</v>
+      </c>
+      <c r="F61" s="3">
         <v>839300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>843600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>722800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>717500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>740600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>722100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2836,35 +3120,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1167900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1156900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1146700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1101400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1018800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1084000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3170,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3220,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3270,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,35 +3320,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2490300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2350200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2362300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2385900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2205300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2165300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2193100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2243300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3370,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3394,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3440,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3490,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,17 +3514,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>185400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>176300</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3206,8 +3540,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,35 +3590,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1242400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1255900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1164300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1082300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1021800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-979900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-902700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-847600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3640,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3690,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3740,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,35 +3790,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F76" s="3">
         <v>72600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>129700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>176100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>218100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-285600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-297400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3840,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3890,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-82000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-60500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-41900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-77000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-56000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-90500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-228500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-36200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-76200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-43600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4019,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F83" s="3">
         <v>22700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>22800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>21500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>17800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>69800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>15800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>16200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4115,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4165,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4215,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4265,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4315,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F89" s="3">
         <v>23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-104400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-38200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4389,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-16100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-26700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-27200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-21800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-128900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-30200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-26200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4485,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4535,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-22200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-39600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-29500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-139900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-31700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-37300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4609,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4655,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4705,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4755,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,136 +4805,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>98300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>263500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>140500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>179700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>131800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>36700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>64300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-48200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>211900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-21800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-27100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>86100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
